--- a/data/trans_bre/P28B_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28B_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -636,52 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,57</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>33,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>70,94%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>259,92%</t>
+          <t>297,25%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>72,93%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 7,32</t>
+          <t>-5,3; 15,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 5,05</t>
+          <t>-4,58; 7,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 7,14</t>
+          <t>-2,74; 5,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 9,09</t>
+          <t>3,04; 9,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 9,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 86,85</t>
+          <t>-28,38; 159,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-50,41; 197,84</t>
+          <t>-59,19; 321,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 257,16</t>
+          <t>-40,52; 172,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>50,3; 840,05</t>
+          <t>79,04; 967,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 222,01</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,07</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,19</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>48,51%</t>
+          <t>38,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>75,67%</t>
+          <t>50,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66,0%</t>
+          <t>53,51%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>55,25%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 11,24</t>
+          <t>-0,97; 12,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 4,54</t>
+          <t>-4,28; 6,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,41</t>
+          <t>-1,02; 6,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 6,39</t>
+          <t>-0,36; 6,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 8,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,57; 92,07</t>
+          <t>-5,39; 118,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 49,0</t>
+          <t>-31,4; 77,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,69; 166,52</t>
+          <t>-13,97; 150,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 174,49</t>
+          <t>-8,71; 164,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 125,03</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>32,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>37,98%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,97%</t>
+          <t>62,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>45,27%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>59,98%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 7,78</t>
+          <t>-2,56; 12,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 6,91</t>
+          <t>-0,83; 8,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 6,79</t>
+          <t>-0,08; 7,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 5,7</t>
+          <t>-0,85; 6,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 14,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 52,49</t>
+          <t>-12,7; 104,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 118,77</t>
+          <t>-12,39; 187,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 142,65</t>
+          <t>-4,62; 167,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,3; 148,65</t>
+          <t>-14,65; 165,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 184,1</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>14,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,4%</t>
+          <t>80,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>77,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>58,93%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,58 +1054,186 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,36</t>
+          <t>-0,33; 7,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 3,67</t>
+          <t>-2,7; 5,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,62</t>
+          <t>0,45; 10,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,06; 8,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,96; 53,12</t>
+          <t>-1,55; 55,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 47,71</t>
+          <t>-22,56; 68,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,15; 118,71</t>
+          <t>-0,12; 211,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,78; 144,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,61; 108,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,39</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,52</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>29,61%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,02%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>55,57%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>73,1%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,67; 7,44</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 4,36</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,31; 5,36</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 5,6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9,72; 54,89</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,86; 56,71</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,79; 102,66</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19,52; 139,64</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_bre/P28B_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P28B_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,84</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,87</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,15</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>33,41%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>37,3%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>23,45%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>297,25%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>4.688668759678347</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.783844537562155</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.067048971984674</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5.976698759263832</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="6" t="n">
+        <v>0.3201100247490949</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.3566524211347151</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.207704156028157</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>2.784469268497758</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,3; 15,08</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,58; 7,71</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 5,25</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,04; 9,46</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-28,38; 159,73</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-59,19; 321,61</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-40,52; 172,13</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>79,04; 967,03</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.574269560684688</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.559500919769972</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.918243260134811</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2.782215140744496</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.2877532401045959</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5987999190189349</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4138730003667946</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.6423296092150722</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.14304537435202</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.613812661480224</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.96510585959453</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.217296580212169</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>1.628498965273217</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>3.204297364342714</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.708272610509683</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>8.630632051491068</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,96</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,19</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>38,65%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>9,17%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>50,97%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>53,51%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,97; 12,84</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,28; 6,55</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 6,64</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,36; 6,94</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-5,39; 118,27</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-31,4; 77,71</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-13,97; 150,78</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-8,71; 164,84</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>5.959763943032523</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.7698879981319893</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>3.728718220026165</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.026248758560075</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="6" t="n">
+        <v>0.3865482313506411</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.07121862031022377</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.604342067695383</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.5793390441439963</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,2</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,93</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,84</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>32,12%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>56,94%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>62,62%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>47,04%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.9740533714956092</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.605925089514379</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.5470466353356334</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2222248428826524</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.05389629041787906</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3320226675505867</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.08832916733101129</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.05124447059287971</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 12,72</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 8,83</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,08; 7,52</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 6,34</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-12,7; 104,0</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-12,39; 187,04</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-4,62; 167,77</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-14,65; 165,77</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.83894269019505</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.799177689256363</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>7.153299386053007</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.701269804836437</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>1.182663090596826</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.7362867308272361</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.629277654554</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.681983937642924</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +855,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,64</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>5,16</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>24,75%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>14,65%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>80,17%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>5.204825158928797</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.718909271103059</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.018887513529265</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>2.565862892650791</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="6" t="n">
+        <v>0.3211622293632264</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.5587661517453165</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.6608692850345956</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.4501125354060696</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 7,25</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,7; 5,06</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,45; 10,32</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 55,2</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-22,56; 68,06</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 211,99</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.558549706964603</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.9605791905174589</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.004010340804744347</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.014558142255334</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-0.1269931946401916</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.1517829793962626</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.01551134035244564</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1539636562726031</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.7195287126125</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.437045405974192</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.66932424204072</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.10688752731414</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>1.040009301836592</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.837698133027031</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.709988043381851</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.613497611760384</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>4,45</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,39</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,52</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>29,61%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>20,02%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>55,57%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>73,1%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 7,44</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 4,36</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 5,36</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 5,6</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>9,72; 54,89</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-6,86; 56,71</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>16,79; 102,66</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>19,52; 139,64</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>5.477161817672885</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.90626742588072</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.187849305448392</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.500909861430441</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="6" t="n">
+        <v>0.3520471323320393</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2284720648405665</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5372478293066917</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.7413939621486929</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.8759600868656594</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.8592886618366744</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.7501634080195489</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.503870127874428</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>0.04542422921639824</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.1095041106724366</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.09079787991932531</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.2205477911475361</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.985498701493338</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.23434331909823</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.440018876286492</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.566215607153873</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>0.7509352005080294</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.7445496459157482</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.106447174690899</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.406053293612914</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
